--- a/Mapa.xlsx
+++ b/Mapa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\GitHub\Taller-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B362D88-31F4-4A2D-9AE2-394641B0A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898C5E41-B939-4DFF-8D26-C6F49EFAF5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{8446B723-B331-42B9-90E2-FED19D962180}"/>
   </bookViews>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E566AD-117F-4763-9712-7BE5B15857C4}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Mapa.xlsx
+++ b/Mapa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\GitHub\Taller-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898C5E41-B939-4DFF-8D26-C6F49EFAF5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FDCD2C-CC23-4173-A7FB-ABFFE8E6C9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{8446B723-B331-42B9-90E2-FED19D962180}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8916" xr2:uid="{8446B723-B331-42B9-90E2-FED19D962180}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -410,13 +410,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E566AD-117F-4763-9712-7BE5B15857C4}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>255</v>
       </c>
@@ -643,7 +643,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -741,105 +741,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>255</v>
+        <f xml:space="preserve"> MOD(A1,2)</f>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>255</v>
+        <f t="shared" ref="B4:AF4" si="1" xml:space="preserve"> MOD(B1,2)</f>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AE4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>200</v>
       </c>
@@ -937,7 +969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>255</v>
       </c>
@@ -1035,7 +1067,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>255</v>
       </c>
@@ -1133,7 +1165,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -1231,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>255</v>
       </c>
@@ -1329,7 +1361,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>50</v>
       </c>
@@ -1427,7 +1459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>255</v>
       </c>
@@ -1525,7 +1557,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>255</v>
       </c>
@@ -1623,7 +1655,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>50</v>
       </c>
@@ -1721,7 +1753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>255</v>
       </c>
@@ -1819,7 +1851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>100</v>
       </c>
@@ -1917,7 +1949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>255</v>
       </c>
